--- a/intro-AI/topperList.xlsx
+++ b/intro-AI/topperList.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="&#9;" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,14 +467,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>500075059</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Olin Tongue</t>
+          <t>Ona Yamanaka</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -484,97 +486,105 @@
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>99</v>
+        <v>484</v>
       </c>
       <c r="G2" t="n">
-        <v>99</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>500031106</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Leonard Liedtke</t>
+          <t>Lincoln Henriquez</t>
         </is>
       </c>
       <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
         <v>5</v>
       </c>
-      <c r="E3" t="n">
-        <v>4</v>
-      </c>
       <c r="F3" t="n">
-        <v>94</v>
+        <v>418</v>
       </c>
       <c r="G3" t="n">
-        <v>94</v>
+        <v>83.59999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>500069697</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tona Hadnott</t>
+          <t>Landon Scurry</t>
         </is>
       </c>
       <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
         <v>5</v>
       </c>
-      <c r="E4" t="n">
-        <v>4</v>
-      </c>
       <c r="F4" t="n">
-        <v>88</v>
+        <v>412</v>
       </c>
       <c r="G4" t="n">
-        <v>88</v>
+        <v>82.39999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B5" t="n">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>500016673</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jared Kavanagh</t>
+          <t>Olin Tongue</t>
         </is>
       </c>
       <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
         <v>5</v>
       </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
       <c r="F5" t="n">
-        <v>88</v>
+        <v>409</v>
       </c>
       <c r="G5" t="n">
-        <v>88</v>
+        <v>81.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>13</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>500089460</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Kit Steidl</t>
+          <t>Wes Heitz</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -584,10 +594,10 @@
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>74</v>
+        <v>379</v>
       </c>
       <c r="G6" t="n">
-        <v>74</v>
+        <v>75.8</v>
       </c>
     </row>
   </sheetData>
